--- a/data/trans_orig/P63-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P63-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>236460</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>221325</v>
+        <v>221927</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>249163</v>
+        <v>250690</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7703221125022641</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7210156611597727</v>
+        <v>0.7229751645256796</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8117044877655375</v>
+        <v>0.8166790687351382</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>273</v>
@@ -765,19 +765,19 @@
         <v>268432</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>246060</v>
+        <v>246859</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>293231</v>
+        <v>293496</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5055439525375772</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4634101715165332</v>
+        <v>0.4649150874397112</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5522472861302681</v>
+        <v>0.5527473860626014</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>513</v>
@@ -786,19 +786,19 @@
         <v>504893</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>477205</v>
+        <v>478166</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>534055</v>
+        <v>532972</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6025402615495418</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5694974424762282</v>
+        <v>0.5706450685421947</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6373425999044117</v>
+        <v>0.6360506107369943</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>70503</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>57800</v>
+        <v>56273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>85638</v>
+        <v>85036</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2296778874977358</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1882955122344625</v>
+        <v>0.1833209312648618</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2789843388402274</v>
+        <v>0.2770248354743204</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>269</v>
@@ -836,19 +836,19 @@
         <v>262545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>237746</v>
+        <v>237481</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284917</v>
+        <v>284118</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4944560474624228</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4477527138697319</v>
+        <v>0.4472526139373985</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5365898284834668</v>
+        <v>0.5350849125602888</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>342</v>
@@ -857,19 +857,19 @@
         <v>333047</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>303885</v>
+        <v>304968</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>360735</v>
+        <v>359774</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3974597384504582</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3626574000955883</v>
+        <v>0.3639493892630058</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4305025575237718</v>
+        <v>0.4293549314578055</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>314279</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>296349</v>
+        <v>295667</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>329198</v>
+        <v>330831</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.784174560159013</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7394359703355049</v>
+        <v>0.7377347675747262</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8214000290412118</v>
+        <v>0.8254728233939014</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>313</v>
@@ -982,19 +982,19 @@
         <v>338891</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>311253</v>
+        <v>314826</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>364195</v>
+        <v>364882</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4836688236016374</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.444223328280387</v>
+        <v>0.4493239145297272</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.519783982555491</v>
+        <v>0.5207635820246754</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>617</v>
@@ -1003,19 +1003,19 @@
         <v>653170</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>618237</v>
+        <v>619874</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>686935</v>
+        <v>683729</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.593012405548176</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5612972015286837</v>
+        <v>0.56278277690853</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6236680151666799</v>
+        <v>0.6207571278698564</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>86498</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>71579</v>
+        <v>69946</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>104428</v>
+        <v>105110</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2158254398409871</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1785999709587883</v>
+        <v>0.1745271766060987</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2605640296644952</v>
+        <v>0.2622652324252738</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>346</v>
@@ -1053,19 +1053,19 @@
         <v>361776</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>336472</v>
+        <v>335785</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>389414</v>
+        <v>385841</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5163311763983626</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.480216017444509</v>
+        <v>0.4792364179753246</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.555776671719613</v>
+        <v>0.5506760854702728</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>429</v>
@@ -1074,19 +1074,19 @@
         <v>448274</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>414509</v>
+        <v>417715</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>483207</v>
+        <v>481570</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.406987594451824</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3763319848333201</v>
+        <v>0.3792428721301437</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4387027984713163</v>
+        <v>0.43721722309147</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>231529</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>219346</v>
+        <v>218861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>241423</v>
+        <v>241265</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8540711063271117</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8091299816966288</v>
+        <v>0.8073394642057289</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8905667931260877</v>
+        <v>0.8899853545432125</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>212</v>
@@ -1199,19 +1199,19 @@
         <v>205856</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>185512</v>
+        <v>184416</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>225298</v>
+        <v>228411</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4391015094492494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3957072851541305</v>
+        <v>0.3933696302736498</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4805738415648388</v>
+        <v>0.4872129517889313</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>436</v>
@@ -1220,19 +1220,19 @@
         <v>437385</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>410168</v>
+        <v>411731</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>462481</v>
+        <v>463771</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5911407227315254</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5543563172747102</v>
+        <v>0.5564680415096529</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6250585403253501</v>
+        <v>0.6268018379832468</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>39560</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29666</v>
+        <v>29824</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51743</v>
+        <v>52228</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1459288936728883</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1094332068739123</v>
+        <v>0.1100146454567875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1908700183033714</v>
+        <v>0.1926605357942711</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>269</v>
@@ -1270,19 +1270,19 @@
         <v>262955</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>243513</v>
+        <v>240400</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>283299</v>
+        <v>284395</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5608984905507506</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.519426158435161</v>
+        <v>0.5127870482110685</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6042927148458695</v>
+        <v>0.6066303697263502</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>310</v>
@@ -1291,19 +1291,19 @@
         <v>302515</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>277419</v>
+        <v>276129</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>329732</v>
+        <v>328169</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4088592772684746</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3749414596746496</v>
+        <v>0.3731981620167532</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4456436827252898</v>
+        <v>0.4435319584903471</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>282946</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>264758</v>
+        <v>266398</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>297659</v>
+        <v>299207</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7357149229993426</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6884222471504865</v>
+        <v>0.6926870385532252</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7739719822474409</v>
+        <v>0.7779969952858953</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>275</v>
@@ -1416,19 +1416,19 @@
         <v>286996</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>261676</v>
+        <v>264210</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>313807</v>
+        <v>313740</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4425672791818741</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4035233457069817</v>
+        <v>0.4074306183542837</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.48391283743855</v>
+        <v>0.4838088149824884</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>583</v>
@@ -1437,19 +1437,19 @@
         <v>569941</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>535172</v>
+        <v>539195</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>598072</v>
+        <v>599203</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5516992222616791</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5180435516496368</v>
+        <v>0.5219379855147824</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5789306470301373</v>
+        <v>0.5800253091400773</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>101640</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>86927</v>
+        <v>85379</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119828</v>
+        <v>118188</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2642850770006574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2260280177525592</v>
+        <v>0.2220030047141048</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3115777528495134</v>
+        <v>0.3073129614467747</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>354</v>
@@ -1487,19 +1487,19 @@
         <v>361483</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>334672</v>
+        <v>334739</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>386803</v>
+        <v>384269</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5574327208181259</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5160871625614504</v>
+        <v>0.5161911850175117</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5964766542930185</v>
+        <v>0.5925693816457165</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>463</v>
@@ -1508,19 +1508,19 @@
         <v>463123</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>434992</v>
+        <v>433861</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>497892</v>
+        <v>493869</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4483007777383209</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4210693529698627</v>
+        <v>0.4199746908599227</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4819564483503633</v>
+        <v>0.4780620144852177</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1065214</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1037357</v>
+        <v>1034523</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1092443</v>
+        <v>1094539</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.781284124810063</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7608521710288914</v>
+        <v>0.7587732292611957</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8012547602265442</v>
+        <v>0.8027923231670065</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1073</v>
@@ -1633,19 +1633,19 @@
         <v>1100174</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1052515</v>
+        <v>1058828</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1145819</v>
+        <v>1149791</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4683717063662047</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.448081777224557</v>
+        <v>0.4507694168580195</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4878036895656022</v>
+        <v>0.4894946516597855</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2149</v>
@@ -1654,19 +1654,19 @@
         <v>2165389</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2109724</v>
+        <v>2103433</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2226313</v>
+        <v>2222461</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5832934211907295</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5682990569731374</v>
+        <v>0.5666042874187284</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5997046536533747</v>
+        <v>0.5986670622567563</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>298201</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>270972</v>
+        <v>268876</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>326058</v>
+        <v>328892</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.218715875189937</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1987452397734558</v>
+        <v>0.1972076768329936</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2391478289711087</v>
+        <v>0.2412267707388046</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1238</v>
@@ -1704,19 +1704,19 @@
         <v>1248760</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1203115</v>
+        <v>1199143</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1296419</v>
+        <v>1290106</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5316282936337953</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.512196310434398</v>
+        <v>0.5105053483402145</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.551918222775443</v>
+        <v>0.5492305831419805</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1544</v>
@@ -1725,19 +1725,19 @@
         <v>1546960</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1486036</v>
+        <v>1489888</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1602625</v>
+        <v>1608916</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4167065788092705</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4002953463466253</v>
+        <v>0.4013329377432438</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4317009430268626</v>
+        <v>0.4333957125812716</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>387608</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>372575</v>
+        <v>373858</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>399842</v>
+        <v>399175</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8961567014847901</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8613989875672958</v>
+        <v>0.8643645512294487</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9244416134294146</v>
+        <v>0.9228999856784319</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>305</v>
@@ -2090,19 +2090,19 @@
         <v>327621</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>305520</v>
+        <v>304579</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>350101</v>
+        <v>350946</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6148715454436529</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5733925543047741</v>
+        <v>0.5716263261752024</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6570614239645017</v>
+        <v>0.6586460643137472</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>673</v>
@@ -2111,19 +2111,19 @@
         <v>715230</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>688455</v>
+        <v>685823</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>741125</v>
+        <v>743089</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7409004196935011</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7131649268887151</v>
+        <v>0.7104385478093445</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7677248607256466</v>
+        <v>0.7697591337437704</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>44915</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32681</v>
+        <v>33348</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59948</v>
+        <v>58665</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1038432985152099</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0755583865705856</v>
+        <v>0.07710001432156834</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1386010124327046</v>
+        <v>0.1356354487705514</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -2161,19 +2161,19 @@
         <v>205208</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>182728</v>
+        <v>181883</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>227309</v>
+        <v>228250</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3851284545563471</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3429385760354986</v>
+        <v>0.3413539356862529</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4266074456952261</v>
+        <v>0.4283736738247979</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>236</v>
@@ -2182,19 +2182,19 @@
         <v>250122</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>224227</v>
+        <v>222263</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>276897</v>
+        <v>279529</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2590995803064989</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2322751392743536</v>
+        <v>0.2302408662562296</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.286835073111285</v>
+        <v>0.2895614521906555</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>527738</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>510410</v>
+        <v>510102</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>543193</v>
+        <v>542935</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8690529278468732</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8405192957425247</v>
+        <v>0.840011947739583</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8945036385177194</v>
+        <v>0.8940788219417973</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>418</v>
@@ -2307,19 +2307,19 @@
         <v>463174</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>435061</v>
+        <v>434946</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>489783</v>
+        <v>489628</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6138099768225103</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5765533935975405</v>
+        <v>0.5764007079139422</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6490729035283458</v>
+        <v>0.6488666604028603</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>898</v>
@@ -2328,19 +2328,19 @@
         <v>990912</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>958398</v>
+        <v>953246</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1025906</v>
+        <v>1021613</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7276245624825765</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7037493819444529</v>
+        <v>0.6999665675652161</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7533205874886163</v>
+        <v>0.7501684738041321</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>79518</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>64063</v>
+        <v>64321</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>96846</v>
+        <v>97154</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1309470721531268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1054963614822806</v>
+        <v>0.1059211780582027</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1594807042574753</v>
+        <v>0.1599880522604171</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>271</v>
@@ -2378,19 +2378,19 @@
         <v>291415</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>264806</v>
+        <v>264961</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>319528</v>
+        <v>319643</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3861900231774898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3509270964716544</v>
+        <v>0.3511333395971397</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4234466064024595</v>
+        <v>0.423599292086058</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>349</v>
@@ -2399,19 +2399,19 @@
         <v>370933</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>335939</v>
+        <v>340232</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>403447</v>
+        <v>408599</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2723754375174235</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.246679412511384</v>
+        <v>0.249831526195868</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2962506180555472</v>
+        <v>0.3000334324347839</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>378208</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>363540</v>
+        <v>362414</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>391324</v>
+        <v>390101</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.870904426941877</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.837129501454181</v>
+        <v>0.8345356450334556</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9011084009424043</v>
+        <v>0.8982918550008069</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>264</v>
@@ -2524,19 +2524,19 @@
         <v>292655</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>267221</v>
+        <v>265286</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>317699</v>
+        <v>319149</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5219450745724034</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4765845613609855</v>
+        <v>0.473132700849013</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5666108708328578</v>
+        <v>0.5691979470381866</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>606</v>
@@ -2545,19 +2545,19 @@
         <v>670862</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>638917</v>
+        <v>641083</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>701400</v>
+        <v>701833</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6742537255308279</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6421467169945455</v>
+        <v>0.6443236460578003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7049460163293395</v>
+        <v>0.7053814142252263</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>56062</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42946</v>
+        <v>44169</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>70730</v>
+        <v>71856</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.129095573058123</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09889159905759605</v>
+        <v>0.101708144999193</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1628704985458193</v>
+        <v>0.1654643549665444</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>247</v>
@@ -2595,19 +2595,19 @@
         <v>268045</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>243001</v>
+        <v>241551</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>293479</v>
+        <v>295414</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4780549254275967</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4333891291671425</v>
+        <v>0.4308020529618133</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5234154386390146</v>
+        <v>0.5268672991509868</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>301</v>
@@ -2616,19 +2616,19 @@
         <v>324108</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>293570</v>
+        <v>293137</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>356053</v>
+        <v>353887</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3257462744691721</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2950539836706606</v>
+        <v>0.2946185857747738</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3578532830054546</v>
+        <v>0.3556763539421997</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>435548</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>416911</v>
+        <v>416163</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>451829</v>
+        <v>448957</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8344875306928294</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7987803382553111</v>
+        <v>0.797346019484617</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8656799215727664</v>
+        <v>0.860177746015731</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>378</v>
@@ -2741,19 +2741,19 @@
         <v>402601</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>373289</v>
+        <v>375626</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>429565</v>
+        <v>429063</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5387518178672782</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4995270637862904</v>
+        <v>0.5026544143964335</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5748339824422476</v>
+        <v>0.574162250941871</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>789</v>
@@ -2762,19 +2762,19 @@
         <v>838149</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>806453</v>
+        <v>800780</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>873130</v>
+        <v>869776</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6603657193127616</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6353932181318431</v>
+        <v>0.6309237757700552</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.68792700412815</v>
+        <v>0.685284035962279</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>86387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70106</v>
+        <v>72978</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105024</v>
+        <v>105772</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1655124693071706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1343200784272336</v>
+        <v>0.1398222539842689</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2012196617446889</v>
+        <v>0.202653980515383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -2812,19 +2812,19 @@
         <v>344684</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>317720</v>
+        <v>318222</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>373996</v>
+        <v>371659</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4612481821327218</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4251660175577525</v>
+        <v>0.4258377490581288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5004729362137096</v>
+        <v>0.4973455856035665</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>423</v>
@@ -2833,19 +2833,19 @@
         <v>431070</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>396089</v>
+        <v>399443</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>462766</v>
+        <v>468439</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3396342806872384</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3120729958718501</v>
+        <v>0.3147159640377213</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.364606781868157</v>
+        <v>0.3690762242299451</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1729101</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1699307</v>
+        <v>1697208</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1757675</v>
+        <v>1757929</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8662904640091189</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8513636736693994</v>
+        <v>0.8503116801850114</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8806059602522894</v>
+        <v>0.8807336335145337</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1365</v>
@@ -2958,19 +2958,19 @@
         <v>1486051</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1431285</v>
+        <v>1432556</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1538330</v>
+        <v>1537643</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5725705905831617</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5514691868879544</v>
+        <v>0.5519591081595822</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5927134570027677</v>
+        <v>0.5924486325884248</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2966</v>
@@ -2979,19 +2979,19 @@
         <v>3215153</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3151210</v>
+        <v>3150622</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3276577</v>
+        <v>3281593</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7002575081119743</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6863308137548357</v>
+        <v>0.6862027320524801</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7136356854723013</v>
+        <v>0.7147281407611003</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>266882</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>238308</v>
+        <v>238054</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>296676</v>
+        <v>298775</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1337095359908811</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1193940397477106</v>
+        <v>0.1192663664854663</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1486363263306007</v>
+        <v>0.1496883198149886</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1044</v>
@@ -3029,19 +3029,19 @@
         <v>1109352</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1057073</v>
+        <v>1057760</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1164118</v>
+        <v>1162847</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4274294094168382</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4072865429972323</v>
+        <v>0.4075513674115749</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4485308131120456</v>
+        <v>0.4480408918404177</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1309</v>
@@ -3050,19 +3050,19 @@
         <v>1376233</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1314809</v>
+        <v>1309793</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1440176</v>
+        <v>1440764</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2997424918880257</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2863643145276988</v>
+        <v>0.2852718592388998</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3136691862451643</v>
+        <v>0.31379726794752</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>378980</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>361407</v>
+        <v>363839</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>390665</v>
+        <v>391479</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8782667536980968</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8375421097625478</v>
+        <v>0.8431786147487339</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9053466262606921</v>
+        <v>0.9072319900693064</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>290</v>
@@ -3415,19 +3415,19 @@
         <v>296145</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>274277</v>
+        <v>273590</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>315740</v>
+        <v>319605</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5870051651718878</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5436594661917945</v>
+        <v>0.5422985448801902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6258458841761004</v>
+        <v>0.6335079792904822</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>660</v>
@@ -3436,19 +3436,19 @@
         <v>675125</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>646815</v>
+        <v>646152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>703291</v>
+        <v>700180</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7212793437294764</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6910330906499413</v>
+        <v>0.6903248137210555</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7513707301866361</v>
+        <v>0.7480462932694081</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>52529</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40844</v>
+        <v>40030</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>70102</v>
+        <v>67670</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1217332463019032</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09465337373930792</v>
+        <v>0.09276800993069352</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1624578902374521</v>
+        <v>0.156821385251266</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>201</v>
@@ -3486,19 +3486,19 @@
         <v>208356</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>188761</v>
+        <v>184896</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>230224</v>
+        <v>230911</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4129948348281121</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3741541158238995</v>
+        <v>0.3664920207095178</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4563405338082054</v>
+        <v>0.4577014551198096</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>252</v>
@@ -3507,19 +3507,19 @@
         <v>260886</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>232720</v>
+        <v>235831</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>289196</v>
+        <v>289859</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2787206562705236</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.248629269813364</v>
+        <v>0.2519537067305921</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3089669093500585</v>
+        <v>0.3096751862789446</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>527807</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>510726</v>
+        <v>511063</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>544522</v>
+        <v>543970</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8696490048850576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8415064782173759</v>
+        <v>0.8420611136377019</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8971899239128148</v>
+        <v>0.8962807883061351</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>433</v>
@@ -3632,19 +3632,19 @@
         <v>466215</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>441174</v>
+        <v>437773</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>493417</v>
+        <v>492696</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6096064629034259</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5768625382682152</v>
+        <v>0.5724165247273817</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6451745647416933</v>
+        <v>0.6442317349600226</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>939</v>
@@ -3653,19 +3653,19 @@
         <v>994022</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>957757</v>
+        <v>960718</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1026186</v>
+        <v>1025894</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7246642141569195</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6982262902591</v>
+        <v>0.7003846076083012</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7481126054769238</v>
+        <v>0.7478996787083341</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>79112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62397</v>
+        <v>62949</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>96193</v>
+        <v>95856</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1303509951149424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1028100760871856</v>
+        <v>0.1037192116938649</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1584935217826242</v>
+        <v>0.1579388863622981</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>273</v>
@@ -3703,19 +3703,19 @@
         <v>298566</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>271364</v>
+        <v>272085</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>323607</v>
+        <v>327008</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3903935370965742</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3548254352583068</v>
+        <v>0.3557682650399775</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.423137461731785</v>
+        <v>0.4275834752726184</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>345</v>
@@ -3724,19 +3724,19 @@
         <v>377678</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>345514</v>
+        <v>345806</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>413943</v>
+        <v>410982</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2753357858430804</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2518873945230762</v>
+        <v>0.252100321291666</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3017737097409</v>
+        <v>0.2996153923916988</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>329177</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>312553</v>
+        <v>313361</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>341234</v>
+        <v>343756</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8402657181013912</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7978289183247026</v>
+        <v>0.7998913441036949</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8710422609451227</v>
+        <v>0.8774799211332927</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>251</v>
@@ -3849,19 +3849,19 @@
         <v>269913</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>247674</v>
+        <v>247382</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>294737</v>
+        <v>291339</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5283694124521605</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4848352146657321</v>
+        <v>0.484264722403875</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5769648854118655</v>
+        <v>0.5703116949245078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>560</v>
@@ -3870,19 +3870,19 @@
         <v>599090</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>570812</v>
+        <v>571027</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>627723</v>
+        <v>628871</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.663741907955878</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6324120071224183</v>
+        <v>0.6326508207762203</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6954642472984935</v>
+        <v>0.6967370427337188</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>62577</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50520</v>
+        <v>47998</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>79201</v>
+        <v>78393</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1597342818986089</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1289577390548773</v>
+        <v>0.1225200788667073</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2021710816752976</v>
+        <v>0.2001086558963054</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>217</v>
@@ -3920,19 +3920,19 @@
         <v>240928</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>216104</v>
+        <v>219502</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>263167</v>
+        <v>263459</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4716305875478394</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4230351145881345</v>
+        <v>0.4296883050754921</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5151647853342681</v>
+        <v>0.515735277596125</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>274</v>
@@ -3941,19 +3941,19 @@
         <v>303505</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>274872</v>
+        <v>273724</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>331783</v>
+        <v>331568</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.336258092044122</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3045357527015063</v>
+        <v>0.303262957266281</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3675879928775817</v>
+        <v>0.3673491792237796</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>442549</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>424974</v>
+        <v>424660</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>460246</v>
+        <v>460234</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8264586125889184</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7936380402309019</v>
+        <v>0.7930514893492489</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8595080509927786</v>
+        <v>0.8594862239244758</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>348</v>
@@ -4066,19 +4066,19 @@
         <v>381079</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>352960</v>
+        <v>350319</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>409102</v>
+        <v>408818</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5327888777671699</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4934746792880585</v>
+        <v>0.4897821212529345</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5719680991974539</v>
+        <v>0.5715707371302351</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>794</v>
@@ -4087,19 +4087,19 @@
         <v>823627</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>790166</v>
+        <v>790106</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>856222</v>
+        <v>856987</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6585179101920466</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6317641156872695</v>
+        <v>0.6317162075545741</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6845780300477847</v>
+        <v>0.6851900633898187</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>92927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75230</v>
+        <v>75242</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>110502</v>
+        <v>110816</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1735413874110816</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1404919490072216</v>
+        <v>0.1405137760755244</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2063619597690981</v>
+        <v>0.2069485106507513</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>301</v>
@@ -4137,19 +4137,19 @@
         <v>334175</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>306152</v>
+        <v>306436</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>362294</v>
+        <v>364935</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4672111222328301</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4280319008025462</v>
+        <v>0.428429262869765</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5065253207119416</v>
+        <v>0.5102178787470655</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>393</v>
@@ -4158,19 +4158,19 @@
         <v>427102</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>394507</v>
+        <v>393742</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>460563</v>
+        <v>460623</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3414820898079534</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3154219699522153</v>
+        <v>0.3148099366101813</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3682358843127305</v>
+        <v>0.368283792445426</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1678512</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1648956</v>
+        <v>1648399</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1708321</v>
+        <v>1708341</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8539190143478689</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8388829287349906</v>
+        <v>0.8385993598545703</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8690839445767831</v>
+        <v>0.8690941393612609</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1322</v>
@@ -4283,19 +4283,19 @@
         <v>1413352</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1364351</v>
+        <v>1366277</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1467963</v>
+        <v>1461790</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.566388281703755</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5467513282608926</v>
+        <v>0.547523142167446</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5882731127109038</v>
+        <v>0.585799288440092</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2953</v>
@@ -4304,19 +4304,19 @@
         <v>3091864</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3026486</v>
+        <v>3029063</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3153826</v>
+        <v>3157396</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6930824056308048</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.678426968065526</v>
+        <v>0.6790046583077708</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7069718954513903</v>
+        <v>0.707772243935951</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>287145</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>257336</v>
+        <v>257316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>316701</v>
+        <v>317258</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1460809856521311</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1309160554232168</v>
+        <v>0.1309058606387391</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1611170712650093</v>
+        <v>0.1614006401454297</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>992</v>
@@ -4354,19 +4354,19 @@
         <v>1082025</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1027414</v>
+        <v>1033587</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1131026</v>
+        <v>1129100</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.433611718296245</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.411726887289096</v>
+        <v>0.4142007115599079</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4532486717391074</v>
+        <v>0.452476857832554</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1264</v>
@@ -4375,19 +4375,19 @@
         <v>1369170</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1307208</v>
+        <v>1303638</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1434548</v>
+        <v>1431971</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3069175943691951</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2930281045486098</v>
+        <v>0.292227756064049</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3215730319344743</v>
+        <v>0.320995341692229</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>279025</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>256824</v>
+        <v>257066</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>293845</v>
+        <v>293692</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8876411388098552</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8170144066072469</v>
+        <v>0.8177863757746235</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9347895323733395</v>
+        <v>0.9343023109618757</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>573</v>
@@ -4740,19 +4740,19 @@
         <v>304938</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>287850</v>
+        <v>288766</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>321728</v>
+        <v>321700</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6793419046205101</v>
+        <v>0.6793419046205099</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6412723441585503</v>
+        <v>0.6433133768608181</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7167457158827842</v>
+        <v>0.7166847218442157</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>942</v>
@@ -4761,19 +4761,19 @@
         <v>583963</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>551143</v>
+        <v>556872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>603193</v>
+        <v>606175</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7651335467107571</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7221314979092964</v>
+        <v>0.7296384115044114</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7903292705944902</v>
+        <v>0.7942371325281731</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>35319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20499</v>
+        <v>20652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57520</v>
+        <v>57278</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1123588611901449</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0652104676266607</v>
+        <v>0.0656976890381241</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1829855933927533</v>
+        <v>0.1822136242253766</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>247</v>
@@ -4811,19 +4811,19 @@
         <v>143935</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>127145</v>
+        <v>127173</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>161023</v>
+        <v>160107</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.32065809537949</v>
+        <v>0.3206580953794899</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2832542841172161</v>
+        <v>0.2833152781557844</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3587276558414498</v>
+        <v>0.3566866231391824</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>265</v>
@@ -4832,19 +4832,19 @@
         <v>179254</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>160024</v>
+        <v>157042</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>212074</v>
+        <v>206345</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2348664532892429</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.20967072940551</v>
+        <v>0.2057628674718268</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2778685020907036</v>
+        <v>0.2703615884955886</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>341575</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>317114</v>
+        <v>318418</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>362000</v>
+        <v>362013</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.820790375217674</v>
+        <v>0.8207903752176741</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7620105293983416</v>
+        <v>0.7651458142419267</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8698695614022259</v>
+        <v>0.8699017802744586</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>577</v>
@@ -4957,19 +4957,19 @@
         <v>368552</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>347086</v>
+        <v>345752</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>391943</v>
+        <v>391680</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6003401140122192</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5653727528592812</v>
+        <v>0.5632007517571291</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6384420323352458</v>
+        <v>0.6380122216153538</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>970</v>
@@ -4978,19 +4978,19 @@
         <v>710127</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>679911</v>
+        <v>676810</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>738418</v>
+        <v>739748</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6894040685521284</v>
+        <v>0.6894040685521287</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6600697630665747</v>
+        <v>0.6570597632926464</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.716869827345795</v>
+        <v>0.718160956794191</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>74579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54154</v>
+        <v>54141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>99040</v>
+        <v>97736</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.179209624782326</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1301304385977739</v>
+        <v>0.1300982197255414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2379894706016585</v>
+        <v>0.2348541857580735</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>332</v>
@@ -5028,19 +5028,19 @@
         <v>245354</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>221963</v>
+        <v>222226</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>266820</v>
+        <v>268154</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3996598859877807</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3615579676647541</v>
+        <v>0.3619877783846464</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4346272471407187</v>
+        <v>0.4367992482428709</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>371</v>
@@ -5049,19 +5049,19 @@
         <v>319932</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>291641</v>
+        <v>290311</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>350148</v>
+        <v>353249</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3105959314478713</v>
+        <v>0.3105959314478714</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2831301726542046</v>
+        <v>0.281839043205809</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3399302369334249</v>
+        <v>0.3429402367073538</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>318491</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>292865</v>
+        <v>293319</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>338699</v>
+        <v>337705</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8478568545326225</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7796363924100973</v>
+        <v>0.7808440915801245</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9016502547310633</v>
+        <v>0.8990039268063924</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>398</v>
@@ -5174,19 +5174,19 @@
         <v>283219</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>261685</v>
+        <v>259057</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>301541</v>
+        <v>303036</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6117088854010784</v>
+        <v>0.6117088854010786</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5651979080499064</v>
+        <v>0.5595220736230556</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6512806890852556</v>
+        <v>0.6545106524948414</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>719</v>
@@ -5195,19 +5195,19 @@
         <v>601711</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>565334</v>
+        <v>569106</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>629798</v>
+        <v>631223</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7174840550980108</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6741085384864129</v>
+        <v>0.6786054012870736</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7509755061384472</v>
+        <v>0.7526741527873692</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>57152</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36944</v>
+        <v>37938</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82778</v>
+        <v>82324</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1521431454673775</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09834974526893675</v>
+        <v>0.1009960731936077</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2203636075899025</v>
+        <v>0.219155908419876</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>218</v>
@@ -5245,19 +5245,19 @@
         <v>179778</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>161456</v>
+        <v>159961</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>201312</v>
+        <v>203940</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3882911145989215</v>
+        <v>0.3882911145989216</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3487193109147439</v>
+        <v>0.3454893475051586</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4348020919500935</v>
+        <v>0.4404779263769444</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>238</v>
@@ -5266,19 +5266,19 @@
         <v>236929</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>208842</v>
+        <v>207417</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>273306</v>
+        <v>269534</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2825159449019893</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2490244938615526</v>
+        <v>0.247325847212631</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3258914615135871</v>
+        <v>0.3213945987129267</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>379680</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>357684</v>
+        <v>354513</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>399271</v>
+        <v>399944</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8439994130856509</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7951033854562184</v>
+        <v>0.7880564236137169</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8875494394478766</v>
+        <v>0.8890446877673348</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>578</v>
@@ -5391,19 +5391,19 @@
         <v>370982</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>348547</v>
+        <v>347590</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>394551</v>
+        <v>392660</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5741002391443707</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5393821486879504</v>
+        <v>0.5379014268025226</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6105736104565433</v>
+        <v>0.6076482536046979</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1058</v>
@@ -5412,19 +5412,19 @@
         <v>750662</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>718209</v>
+        <v>718536</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>783223</v>
+        <v>782227</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6848760784663845</v>
+        <v>0.6848760784663844</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6552673104002036</v>
+        <v>0.6555658758707253</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.714583663333836</v>
+        <v>0.7136751216165214</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>70178</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50587</v>
+        <v>49914</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>92174</v>
+        <v>95345</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1560005869143491</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1124505605521236</v>
+        <v>0.1109553122326653</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2048966145437818</v>
+        <v>0.2119435763862834</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>362</v>
@@ -5462,19 +5462,19 @@
         <v>275215</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>251646</v>
+        <v>253537</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>297650</v>
+        <v>298607</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4258997608556294</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3894263895434553</v>
+        <v>0.3923517463953023</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4606178513120495</v>
+        <v>0.4620985731974778</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>397</v>
@@ -5483,19 +5483,19 @@
         <v>345393</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>312832</v>
+        <v>313828</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>377846</v>
+        <v>377519</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3151239215336155</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2854163366661639</v>
+        <v>0.2863248783834785</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3447326895997962</v>
+        <v>0.3444341241292746</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1318771</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1272793</v>
+        <v>1272396</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1356944</v>
+        <v>1359743</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8475399129688826</v>
+        <v>0.847539912968883</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8179909819706654</v>
+        <v>0.8177355354606979</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8720726019884938</v>
+        <v>0.8738711482612235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2126</v>
@@ -5608,19 +5608,19 @@
         <v>1327691</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1289087</v>
+        <v>1281015</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1371314</v>
+        <v>1366246</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6112837824461963</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5935098840975894</v>
+        <v>0.5897934284343609</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6313683913354148</v>
+        <v>0.6290347142224023</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3689</v>
@@ -5629,19 +5629,19 @@
         <v>2646462</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2582584</v>
+        <v>2587582</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2704108</v>
+        <v>2707090</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.709893520724292</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.69275872572611</v>
+        <v>0.694099230163026</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7253565137661966</v>
+        <v>0.7261562658629979</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>237228</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199055</v>
+        <v>196256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>283206</v>
+        <v>283603</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1524600870311171</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1279273980115063</v>
+        <v>0.1261288517387766</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1820090180293346</v>
+        <v>0.1822644645393024</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1159</v>
@@ -5679,19 +5679,19 @@
         <v>844281</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>800658</v>
+        <v>805726</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>882885</v>
+        <v>890957</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3887162175538038</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3686316086645852</v>
+        <v>0.3709652857775975</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4064901159024106</v>
+        <v>0.4102065715656389</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1271</v>
@@ -5700,19 +5700,19 @@
         <v>1081509</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1023863</v>
+        <v>1020881</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1145387</v>
+        <v>1140389</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.290106479275708</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2746434862338034</v>
+        <v>0.2738437341370021</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3072412742738901</v>
+        <v>0.305900769836974</v>
       </c>
     </row>
     <row r="18">
